--- a/Employee_Reports35/Peter Nganga Kamau Q0593.xlsx
+++ b/Employee_Reports35/Peter Nganga Kamau Q0593.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1197,11 +1197,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1246,11 +1246,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1295,11 +1295,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1393,11 +1393,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1430,11 +1430,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">

--- a/Employee_Reports35/Peter Nganga Kamau Q0593.xlsx
+++ b/Employee_Reports35/Peter Nganga Kamau Q0593.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1197,11 +1197,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1246,11 +1246,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1295,11 +1295,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1344,11 +1344,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1393,11 +1393,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1430,11 +1430,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
